--- a/biology/Zoologie/Canard_à_bec_tacheté/Canard_à_bec_tacheté.xlsx
+++ b/biology/Zoologie/Canard_à_bec_tacheté/Canard_à_bec_tacheté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_tachet%C3%A9</t>
+          <t>Canard_à_bec_tacheté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas poecilorhyncha
 Le Canard à bec tacheté (Anas poecilorhyncha) est une espèce d'oiseaux de la famille des Anatidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_tachet%C3%A9</t>
+          <t>Canard_à_bec_tacheté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce ressemble à une femelle de Canard colvert au plumage cependant plus sombre et plus contrasté. Le bec est noir avec une tache rouge de chaque côté de la base et une grande tache jaune à l'extrémité.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bec_tachet%C3%A9</t>
+          <t>Canard_à_bec_tacheté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 A. p. poecilorhyncha Forster, JR, 1781 : sous-continent indien ;
